--- a/ACS test.xlsx
+++ b/ACS test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dom\Desktop\Git\PVtesty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mr_Dusza\Documents\GitHub\PVtesty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35ED1ABE-1EFF-4963-9216-194C599E0E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58286AED-3095-4A6E-8B37-3C068F80B475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CB2917E-A762-46F7-A9A8-0826DD45E28B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3CB2917E-A762-46F7-A9A8-0826DD45E28B}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>wsp wypeł %</t>
   </si>
@@ -43,19 +43,16 @@
     <t>i max</t>
   </si>
   <si>
-    <t>Iśr [mA] (ESP)</t>
-  </si>
-  <si>
     <t>Iśr [mA] (obliczone)</t>
   </si>
   <si>
-    <t>filtr 47u, add 0,2u</t>
+    <t xml:space="preserve">Iśr [mA] (ESP) filtr 47u, add 0,2u </t>
   </si>
   <si>
-    <t>filtr 100n, add 0,2u</t>
+    <t>Iśr [mA] (ESP) filtr 100n, add 0,2u</t>
   </si>
   <si>
-    <t>bez filtru, add 0,2u</t>
+    <t>Iśr [mA] (ESP) bez filtru, add 0,2u</t>
   </si>
 </sst>
 </file>
@@ -109,6 +106,2247 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Iśr[mA] w zależności od filtrów</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iśr [mA] (obliczone)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$C$4:$C$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>26.400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.60000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>158.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>184.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>211.20000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>237.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>290.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>316.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>343.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>369.6</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>422.40000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>448.8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>475.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>501.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>554.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>580.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>607.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>633.6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>686.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>712.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>739.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>765.59999999999991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>792</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>818.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>844.80000000000007</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>871.2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>897.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>923.99999999999989</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>950.4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>976.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1003.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1029.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1056</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1082.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1108.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1135.2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1161.5999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1188.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1214.4000000000001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1240.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1267.2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1293.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1346.4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1372.8</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1399.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1425.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1452.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1478.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1504.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1531.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1557.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1610.4</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1636.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1663.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1689.6000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1716.0000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1742.4</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1768.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1795.2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1821.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1847.9999999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1874.4</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1900.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1927.2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1953.6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2006.4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2032.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2059.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2085.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2138.4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2164.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2191.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2217.6</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2244</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2270.4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2296.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2323.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2349.6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2376.0000000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2402.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2428.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2455.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2481.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2508</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2534.4</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2560.8000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2587.2000000000003</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2613.6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58BE-4817-A4ED-AEB952076C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iśr [mA] (ESP) filtr 47u, add 0,2u </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$D$4:$D$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-118</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-33</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>534</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>578</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>625</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>645</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>699</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>730</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>750</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>762</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>785</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>890</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>895</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>928</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>948</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>988</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1083</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1088</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1158</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1144</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1181</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1207</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1236</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1282</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1307</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1323</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1366</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1404</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1642</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1726</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1782</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1799</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1861</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2082</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2206</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2330</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2513</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2584</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2642</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2640</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58BE-4817-A4ED-AEB952076C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iśr [mA] (ESP) filtr 100n, add 0,2u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$4:$E$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>459</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>490</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>516</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>537</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>550</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>580</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>630</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>660</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>692</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>740</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>732</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>745</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>801</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>869</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>901</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>955</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1003</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1066</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1130</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1157</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1153</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1193</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1213</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1291</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1293</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1317</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1403</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1615</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1638</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1671</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1741</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1771</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1811</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1840</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1860</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1892</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2103</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2130</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2188</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2417</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2530</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-58BE-4817-A4ED-AEB952076C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Arkusz1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iśr [mA] (ESP) bez filtru, add 0,2u</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$F$4:$F$103</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-130</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-37</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>480</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>491</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>562</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>642</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>704</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>731</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>755</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>777</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>916</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>952</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>968</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1030</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1132</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1161</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1230</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1231</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1265</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1351</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1382</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1405</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1430</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1443</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1603</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1632</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1654</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1680</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1702</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1713</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1746</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1786</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1802</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1851</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1880</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2054</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2085</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2112</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2139</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2175</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2208</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2221</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2283</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2367</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2390</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2409</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2441</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2480</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2482</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2539</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2560</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2582</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2613</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-58BE-4817-A4ED-AEB952076C18}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1917494559"/>
+        <c:axId val="1917502879"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1917494559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917502879"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1917502879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pl-PL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1917494559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pl-PL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pl-PL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409014</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>79560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>313765</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>33617</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Wykres 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACD43637-B366-6E7C-D9FE-2C95388D2B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,17 +2648,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670C1C5B-9604-4A90-B0F9-F5445F2EEBA7}">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -432,31 +2670,22 @@
       <c r="A2">
         <v>2.64</v>
       </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2261,25 +4490,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101000D81EA905B6BC847BDD1FFADA815F393" ma:contentTypeVersion="7" ma:contentTypeDescription="Utwórz nowy dokument." ma:contentTypeScope="" ma:versionID="e0c3f21f7a17ea7db004feaac302f9ff">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ebed57f9-8819-45bb-a9ab-8668b03beab8" xmlns:ns4="692ade2a-f34a-415b-a005-a596550909dc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4458d864b72c97ce52fcef86965df038" ns3:_="" ns4:_="">
     <xsd:import namespace="ebed57f9-8819-45bb-a9ab-8668b03beab8"/>
@@ -2464,10 +4679,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644C51B2-ED39-4096-925B-06105CB40462}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4978C6-1283-4F2F-AC2B-F15C2BAC598F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ebed57f9-8819-45bb-a9ab-8668b03beab8"/>
+    <ds:schemaRef ds:uri="692ade2a-f34a-415b-a005-a596550909dc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2490,20 +4731,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4978C6-1283-4F2F-AC2B-F15C2BAC598F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{644C51B2-ED39-4096-925B-06105CB40462}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ebed57f9-8819-45bb-a9ab-8668b03beab8"/>
-    <ds:schemaRef ds:uri="692ade2a-f34a-415b-a005-a596550909dc"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>